--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2474738.359021663</v>
+        <v>2470434.019211795</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.36057463500434</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015064</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -712,10 +712,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>208.2085323732917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>1.219197308812972</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>5.167208780293818</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>86.98982152529881</v>
+        <v>202.8939929591014</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>72.63544656439282</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>208.2085323732919</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>44.03868606185263</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>30.20084632221939</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>126.2579405813117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.24657366750733</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>26.93436720137417</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>132.6026661256496</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.9062466127681</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>50.26232598889472</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.34571932180317</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>243.873892165261</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>184.8404164569148</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>78.6882778203391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>139.188673966789</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>58.24570521548731</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>116.2836593751502</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>39.17658763086867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>126.6035148834797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>136.420795521365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.45284414232981</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>75.00788511618059</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.9099126163968</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="C2" t="n">
-        <v>416.9099126163968</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163968</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163968</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
         <v>150.5322560492186</v>
@@ -4327,55 +4327,55 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515915</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030614</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991327</v>
+        <v>704.5463761991311</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358425</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601764</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946899</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298179</v>
+        <v>690.2330699327779</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709466</v>
+        <v>690.2330699327779</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709466</v>
+        <v>690.2330699327779</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709466</v>
+        <v>690.2330699327779</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709466</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709466</v>
+        <v>157.4777567984221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>626.7308562709218</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>452.2778269897948</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3434173285435</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957471</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302318</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267556</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293607</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560905</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212816</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212816</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442532</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442532</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="V3" t="n">
-        <v>839.7105578442532</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="W3" t="n">
-        <v>834.4911550358756</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="X3" t="n">
-        <v>834.4911550358756</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>626.7308562709218</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.5564185430274</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>336.5564185430274</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>336.5564185430274</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
         <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816804</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="W4" t="n">
-        <v>966.9870134148146</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>738.9974625167972</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.2048833732671</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>634.167062227511</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>367.789405660333</v>
       </c>
       <c r="E5" t="n">
-        <v>423.8554133656</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163965</v>
+        <v>94.46624834395162</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4597,22 +4597,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W5" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X5" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399.1530532740824</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>224.7000239929554</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>224.7000239929554</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,10 +4649,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
         <v>529.4746963267547</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1010.371998731426</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>775.2198904996833</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>775.2198904996833</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>567.3683902941505</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>567.3683902941505</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>440.9509843443104</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>272.0148014164035</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>272.0148014164035</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745502</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>622.5994491745502</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V7" t="n">
-        <v>622.5994491745502</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W7" t="n">
-        <v>622.5994491745502</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>622.5994491745502</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.5994491745502</v>
+        <v>533.7933752329598</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.347317305397</v>
+        <v>1116.665619403903</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.347317305397</v>
+        <v>747.7031024634912</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986469</v>
+        <v>389.4374038567407</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004026</v>
+        <v>389.4374038567407</v>
       </c>
       <c r="F8" t="n">
-        <v>129.307461310795</v>
+        <v>382.4919031075372</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467164</v>
+        <v>187.3702251467176</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607408</v>
+        <v>442.1757437607434</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045906</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418559</v>
+        <v>2229.499872999218</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.767128418559</v>
+        <v>1876.731217729104</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.301370157479</v>
+        <v>1503.265459468025</v>
       </c>
       <c r="Y8" t="n">
-        <v>1341.162038181667</v>
+        <v>1503.265459468025</v>
       </c>
     </row>
     <row r="9">
@@ -4877,55 +4877,55 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>559.90633895727</v>
+        <v>298.0857543148188</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907506</v>
+        <v>800.9941814716191</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865051</v>
+        <v>1164.060649945921</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.59319333762</v>
+        <v>1551.145052418491</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359408</v>
+        <v>1883.031862405881</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789032</v>
+        <v>2445.345361789044</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751571</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519828</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791627</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586094</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519450916631</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.818147443063</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>473.818147443063</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>473.818147443063</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>473.818147443063</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380119</v>
+        <v>76.63468308380178</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368928</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.8653899904048</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1584.999119225952</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1388.358866447786</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1165.377564922191</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>876.2591914168329</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>876.2591914168329</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>876.2591914168329</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>876.2591914168329</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>655.4666122733028</v>
+        <v>846.7155834576416</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1731.123815697113</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1476.439327491226</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.022157454266</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3162.891787183563</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3790.48975073817</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>4342.399480977458</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.866460342035</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2770.435951460738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2620.319312048402</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2620.319312048402</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2620.319312048402</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>986.1256051221279</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>817.189422194221</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>667.0727827818853</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.556199993915</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.566649095898</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.774069952368</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,7 +6226,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.613315601761</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.05435957553</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7177,22 +7177,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7259,16 +7259,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1030.918378293891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>861.9821953659841</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>711.8655559536484</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>563.9524623712553</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>417.0625148733449</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4145.565608807447</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3890.88112060156</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3890.88112060156</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3662.891569703542</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>719.5738700011939</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>550.637687073287</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1894.106123115829</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1639.421634909942</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1350.004464872981</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1122.014913974964</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.2223348314336</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127307</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127214</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140417</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>210.4772158821397</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>264.474747509495</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348527</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.31058222398312</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>101.6825818796762</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>146.9958004224551</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>107.2784330767815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>30.15030327141898</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.64330621514813</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>149.7636788678792</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>67.07129414993904</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.1765892730635</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580773</v>
+        <v>390680.0076580807</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606947</v>
+        <v>507909.2320606916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101719</v>
+        <v>95270.23779101798</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954695</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608936</v>
+        <v>138058.0537608927</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26435,7 +26435,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26447,19 +26447,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567884</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-356266.378481344</v>
+        <v>-356266.3784813437</v>
       </c>
       <c r="C6" t="n">
         <v>323821.6021098491</v>
       </c>
       <c r="D6" t="n">
-        <v>14666.44265016982</v>
+        <v>14666.44265016695</v>
       </c>
       <c r="E6" t="n">
-        <v>6559.708553384131</v>
+        <v>6212.329299030587</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="G6" t="n">
-        <v>514468.9406140786</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597215</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597218</v>
       </c>
       <c r="J6" t="n">
-        <v>445469.7861949646</v>
+        <v>445122.4069406078</v>
       </c>
       <c r="K6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="L6" t="n">
-        <v>419198.7028230618</v>
+        <v>418851.3235687037</v>
       </c>
       <c r="M6" t="n">
-        <v>381750.9649186095</v>
+        <v>381403.585664253</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597218</v>
       </c>
       <c r="O6" t="n">
-        <v>514468.940614079</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="P6" t="n">
-        <v>514468.9406140785</v>
+        <v>514121.5613597221</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856942</v>
+        <v>640.1406900856973</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933032</v>
+        <v>319.647445793306</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788922</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841909</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.3732670284762</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402051</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.081183229931526</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>16.93332764646471</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>246.5277743806258</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>199.5331768112922</v>
+        <v>83.62900537748965</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>340.1987280813172</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4.081183229931298</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>181.815801441702</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>149.6311338597179</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.1760220652575</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>326.4872679959732</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>384.6147925868753</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164524166</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.776449164536302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>51.32463317520074</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.7919240020248</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.151880383618923e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30474,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.541663827235896e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33979,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>536.3866168795495</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>502.2268148619681</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572294</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877685</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204537</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089027</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127614</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884359</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>507.9883102593942</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>599.7139495169582</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804282</v>
+        <v>567.9934337203664</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0449047962162</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>359.6305704175236</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2470434.019211795</v>
+        <v>2472194.549514581</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>66.67731766039422</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>208.2085323732917</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>263.7138800015061</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.219197308812972</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>135.1332287834837</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>202.8939929591014</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,13 +904,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>72.63544656439282</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>115.0783814354791</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.20084632221939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>232.0477154881478</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>323.2947273751338</v>
       </c>
       <c r="G8" t="n">
-        <v>26.93436720137417</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>91.06264775161807</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115227</v>
+        <v>20.24979976115232</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256496</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932180317</v>
+        <v>195.7667673447337</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>184.8404164569148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>30.6510490328338</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.02919805176109</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>26.13627195705825</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4777567984221</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4777567984221</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>367.789405660333</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>367.789405660333</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>88.44793631971064</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>88.44793631971064</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>690.2330699327779</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133655999</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.4777567984221</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4409,49 +4409,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.62400757288</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.62400757288</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.62400757288</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.62400757288</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>818.4718993411373</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>818.4718993411373</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4718993411373</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
         <v>818.4718993411373</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.666471045117</v>
+        <v>508.7192933853597</v>
       </c>
       <c r="C4" t="n">
-        <v>189.666471045117</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="D4" t="n">
         <v>189.666471045117</v>
@@ -4491,49 +4491,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165356</v>
+        <v>918.3573091136168</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745499</v>
+        <v>918.3573091136168</v>
       </c>
       <c r="U4" t="n">
-        <v>622.5994491745499</v>
+        <v>918.3573091136168</v>
       </c>
       <c r="V4" t="n">
-        <v>622.5994491745499</v>
+        <v>918.3573091136168</v>
       </c>
       <c r="W4" t="n">
-        <v>417.6560219431344</v>
+        <v>918.3573091136168</v>
       </c>
       <c r="X4" t="n">
-        <v>189.666471045117</v>
+        <v>690.3677582155995</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.666471045117</v>
+        <v>690.3677582155995</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900.5447187946889</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931551</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>94.46624834395162</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946889</v>
+        <v>833.1938928750989</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>471.0283840154698</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>296.5753547343428</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,7 +4649,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
         <v>338.874007230231</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>847.0040198004917</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>639.2437210355379</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.2874698569806</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>334.3512869290737</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329598</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7933752329598</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.7933752329598</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116.665619403903</v>
+        <v>1116.6656194039</v>
       </c>
       <c r="C8" t="n">
-        <v>747.7031024634912</v>
+        <v>747.7031024634884</v>
       </c>
       <c r="D8" t="n">
-        <v>389.4374038567407</v>
+        <v>389.4374038567379</v>
       </c>
       <c r="E8" t="n">
-        <v>389.4374038567407</v>
+        <v>389.4374038567379</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4919031075372</v>
+        <v>62.87707317478451</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.3702251467174</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.1757437607429</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999218</v>
+        <v>2229.499872999216</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729104</v>
+        <v>1876.731217729102</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468025</v>
+        <v>1503.265459468022</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.265459468025</v>
+        <v>1503.265459468022</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010814</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199544</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587031</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532476</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801326</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763208</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.488757963719</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148188</v>
+        <v>506.4581980381362</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716191</v>
+        <v>800.9941814716178</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945921</v>
+        <v>1164.06064994592</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418491</v>
+        <v>1551.145052418489</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405881</v>
+        <v>1883.031862405879</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2445.345361789041</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.72632175158</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791636</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586103</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274019</v>
+        <v>518.1771711294915</v>
       </c>
       <c r="C10" t="n">
-        <v>496.130935699495</v>
+        <v>349.2409882015846</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871593</v>
+        <v>199.1243487892488</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047661</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380178</v>
+        <v>76.63468308380166</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>1438.02493603824</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>1148.607766001279</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>920.6182151032614</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576416</v>
+        <v>699.8256359597312</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5238,13 +5238,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.894412370891</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
         <v>402.7245934908939</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="32">
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6709,19 +6709,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,46 +7177,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127214</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775106</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>210.4772158821391</v>
       </c>
       <c r="L9" t="n">
-        <v>210.4772158821397</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>20.98618304348497</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>101.6825818796762</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.03697526434109</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>73.62417772602025</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.873089259435</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5862749664513</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580807</v>
+        <v>390680.00765808</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606916</v>
+        <v>507909.2320606923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911427</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.413517661587885e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101798</v>
+        <v>95270.23779101782</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608927</v>
+        <v>138058.0537608929</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26435,19 +26435,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-356266.3784813437</v>
       </c>
       <c r="C6" t="n">
-        <v>323821.6021098491</v>
+        <v>323821.6021098492</v>
       </c>
       <c r="D6" t="n">
-        <v>14666.44265016695</v>
+        <v>14666.44265016759</v>
       </c>
       <c r="E6" t="n">
-        <v>6212.329299030587</v>
+        <v>6524.970627950999</v>
       </c>
       <c r="F6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="G6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="H6" t="n">
-        <v>514121.5613597215</v>
+        <v>514434.2026886429</v>
       </c>
       <c r="I6" t="n">
-        <v>514121.5613597218</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="J6" t="n">
-        <v>445122.4069406078</v>
+        <v>445435.048269529</v>
       </c>
       <c r="K6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="L6" t="n">
-        <v>418851.3235687037</v>
+        <v>419163.964897625</v>
       </c>
       <c r="M6" t="n">
-        <v>381403.585664253</v>
+        <v>381716.2269931743</v>
       </c>
       <c r="N6" t="n">
-        <v>514121.5613597218</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="O6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.202688643</v>
       </c>
       <c r="P6" t="n">
-        <v>514121.5613597221</v>
+        <v>514434.2026886431</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>319.6474457933055</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.27304077889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841909</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.62930188650289</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.081183229931526</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545475</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16.93332764646471</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225434</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27587,10 +27587,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>69.58593546011008</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.62900537748965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402053</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>340.1987280813172</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>166.7929277964372</v>
       </c>
     </row>
     <row r="6">
@@ -27700,13 +27700,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>32.36668412915964</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.6311338597179</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>54.47528284844319</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>83.58131836657759</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>384.6147925868753</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.77644916452698</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164524166</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503844</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020248</v>
+        <v>56.37087597909434</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546675</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763194</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354934</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359945</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307898</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140478</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026276</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.867840461717</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366402</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650341</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877685</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496425</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705673</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655062</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087218</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091031</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.0384768797638</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234312</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127614</v>
+        <v>62.90656844127602</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>396.9388283579972</v>
       </c>
       <c r="L9" t="n">
-        <v>507.9883102593942</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396987</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.2392020074643</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203664</v>
+        <v>567.9934337203662</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873325</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641533</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
